--- a/aoc2015/inputs/inputs.xlsx
+++ b/aoc2015/inputs/inputs.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="day5" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="day6" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2287">
   <si>
     <t xml:space="preserve">3x11x24</t>
   </si>
@@ -5982,6 +5983,906 @@
   </si>
   <si>
     <t xml:space="preserve">yzsmlbnftftgwadz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 660,55 through 986,197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 341,304 through 638,850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 199,133 through 461,193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 322,558 through 977,958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 537,781 through 687,941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 226,196 through 599,390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 240,129 through 703,297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 317,329 through 451,798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 957,736 through 977,890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 263,530 through 559,664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 158,270 through 243,802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 223,39 through 454,511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 544,218 through 979,872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 313,306 through 363,621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 173,401 through 496,407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 333,60 through 748,159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 87,577 through 484,608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 809,648 through 826,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 352,432 through 628,550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 197,408 through 579,569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 1,629 through 802,633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 61,44 through 567,111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 880,25 through 903,973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 347,123 through 864,746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 728,877 through 996,975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 121,895 through 349,906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 888,547 through 931,628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 398,782 through 834,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 966,850 through 989,953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 891,543 through 914,991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 908,77 through 916,117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 576,900 through 943,934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 580,170 through 963,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 184,638 through 192,944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 940,147 through 978,730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 854,56 through 965,591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 717,172 through 947,995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 426,987 through 705,998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 987,157 through 992,278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 995,774 through 997,784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 796,96 through 845,182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 451,87 through 711,655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 380,93 through 968,676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 263,468 through 343,534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 917,936 through 928,959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 478,7 through 573,148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 428,339 through 603,624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 400,880 through 914,953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 679,428 through 752,779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 697,981 through 709,986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 482,566 through 505,725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 956,368 through 993,516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 735,823 through 783,883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 48,487 through 892,496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 116,680 through 564,819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 633,865 through 729,930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 314,618 through 571,922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 138,166 through 936,266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 444,732 through 664,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 109,337 through 972,497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 51,432 through 77,996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 259,297 through 366,744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 801,130 through 917,544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 767,982 through 847,996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 216,507 through 863,885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 61,441 through 465,731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 849,970 through 944,987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 845,76 through 852,951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 732,615 through 851,936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 251,128 through 454,778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 324,429 through 352,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 52,450 through 932,863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 449,379 through 789,490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 317,319 through 936,449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 887,670 through 957,838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 671,613 through 856,664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 186,648 through 985,991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 471,689 through 731,717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 91,331 through 750,758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 201,73 through 956,524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 82,614 through 520,686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 84,287 through 467,734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 132,367 through 208,838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 558,684 through 663,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 237,952 through 265,997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 694,713 through 714,754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 632,523 through 862,827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 918,780 through 948,916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 349,586 through 663,976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 231,29 through 257,589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 886,428 through 902,993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 106,353 through 236,374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 734,577 through 759,684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 347,843 through 696,912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 286,699 through 964,883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 605,875 through 960,987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 328,286 through 869,461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 472,569 through 980,848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 673,573 through 702,884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 398,284 through 738,332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 158,50 through 284,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 390,284 through 585,663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 156,579 through 646,581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 875,493 through 989,980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 486,391 through 924,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 236,722 through 272,964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 228,282 through 470,581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 584,389 through 750,761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 899,516 through 900,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 105,229 through 822,846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 253,77 through 371,877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 826,987 through 906,992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 13,152 through 615,931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 835,320 through 942,399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 463,504 through 536,720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 746,942 through 786,998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 867,333 through 965,403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 591,477 through 743,692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 403,437 through 508,908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 26,723 through 368,814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 409,485 through 799,809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 115,630 through 704,705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 228,183 through 317,220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 300,649 through 382,842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 495,365 through 745,562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 698,346 through 744,873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 822,932 through 951,934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 805,30 through 925,421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 441,152 through 653,274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 160,81 through 257,587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 350,781 through 532,917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 40,583 through 348,636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 280,306 through 483,395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 392,936 through 880,955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 496,591 through 851,934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 780,887 through 946,994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 205,735 through 281,863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 100,876 through 937,915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 392,393 through 702,878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 956,374 through 976,636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 478,262 through 894,775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 279,65 through 451,677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 397,541 through 809,847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 444,291 through 451,586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 721,408 through 861,598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 275,365 through 609,382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 736,24 through 839,72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 86,492 through 582,712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 676,676 through 709,703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 105,710 through 374,817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 328,748 through 845,757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 335,79 through 394,326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 193,157 through 633,885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 227,48 through 769,743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 148,333 through 614,568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 22,30 through 436,263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 547,447 through 688,969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 576,621 through 987,740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 711,334 through 799,515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 541,448 through 654,951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 792,199 through 798,990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 89,956 through 609,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 724,433 through 929,630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 144,895 through 201,916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 226,730 through 632,871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 760,819 through 828,974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 887,180 through 940,310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 222,327 through 805,590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 630,824 through 885,963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 940,740 through 954,946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 193,373 through 779,515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 304,955 through 469,975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 405,480 through 546,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 662,123 through 690,669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 615,238 through 750,714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 423,220 through 930,353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 329,769 through 358,970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 590,151 through 704,722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 884,539 through 894,671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 449,241 through 984,549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 449,260 through 496,464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 306,448 through 602,924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 286,805 through 555,901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 722,177 through 922,298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 491,554 through 723,753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 80,849 through 174,996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 296,561 through 530,856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 653,10 through 972,284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 529,236 through 672,614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 791,598 through 989,695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 19,45 through 575,757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 111,55 through 880,871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 197,897 through 943,982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 912,336 through 977,605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 101,221 through 537,450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 101,104 through 969,447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 71,527 through 587,717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 336,445 through 593,889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 214,179 through 575,699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 86,313 through 96,674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 566,427 through 906,888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 641,597 through 850,845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 606,524 through 883,704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 835,775 through 867,887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 547,301 through 897,515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 289,930 through 413,979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 361,122 through 457,226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 162,187 through 374,746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 348,461 through 454,675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 966,532 through 985,537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 172,354 through 630,606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 501,880 through 680,993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 8,70 through 566,592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 433,73 through 690,651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 840,798 through 902,971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 822,204 through 893,760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 453,496 through 649,795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 969,549 through 990,942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 789,28 through 930,267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 880,98 through 932,434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 568,674 through 669,753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 686,228 through 903,271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 263,995 through 478,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 534,675 through 687,955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 342,434 through 592,986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 404,768 through 677,867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 126,723 through 978,987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 749,675 through 978,959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 445,330 through 446,885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 463,205 through 924,815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 417,430 through 915,472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 544,990 through 912,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 201,255 through 834,789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 261,142 through 537,862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 562,934 through 832,984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 459,978 through 691,980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 73,911 through 971,972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 560,448 through 723,810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 204,630 through 217,854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 91,259 through 611,607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 877,32 through 978,815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 950,438 through 974,746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 426,30 through 609,917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 696,37 through 859,201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 242,417 through 682,572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 388,401 through 979,528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 79,345 through 848,685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 98,91 through 800,434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 650,700 through 972,843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 530,450 through 538,926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 428,559 through 962,909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 78,138 through 92,940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 194,117 through 867,157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 785,355 through 860,617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 379,441 through 935,708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 605,133 through 644,911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 10,963 through 484,975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 359,988 through 525,991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 509,138 through 787,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 556,467 through 562,773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 119,486 through 246,900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 445,561 through 794,673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 598,681 through 978,921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 974,230 through 995,641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 760,75 through 800,275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 441,215 through 528,680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 701,636 through 928,877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 165,753 through 202,780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 501,412 through 998,516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 161,105 through 657,395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 113,340 through 472,972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 384,994 through 663,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 969,994 through 983,997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 519,600 through 750,615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 363,899 through 948,935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 271,845 through 454,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 376,528 through 779,640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 767,98 through 854,853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 107,322 through 378,688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 235,899 through 818,932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 445,611 through 532,705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 629,387 through 814,577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 112,414 through 387,421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 319,184 through 382,203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 627,796 through 973,940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 602,45 through 763,151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 441,375 through 974,545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 871,952 through 989,998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 717,272 through 850,817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 475,711 through 921,882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 66,191 through 757,481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 50,197 through 733,656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 83,575 through 915,728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 777,812 through 837,912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 20,984 through 571,994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off 446,432 through 458,648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on 715,871 through 722,890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 424,675 through 740,862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 580,592 through 671,900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle 296,687 through 906,775</t>
   </si>
 </sst>
 </file>
@@ -11115,7 +12016,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -16134,4 +17035,1532 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A300"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/aoc2015/inputs/inputs.xlsx
+++ b/aoc2015/inputs/inputs.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="day5" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="day6" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="day7" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="2626">
   <si>
     <t xml:space="preserve">3x11x24</t>
   </si>
@@ -6883,6 +6884,1023 @@
   </si>
   <si>
     <t xml:space="preserve">toggle 296,687 through 906,775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT dq -&gt; dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg OR kf -&gt; kh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep OR eo -&gt; eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44430 -&gt; b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT gs -&gt; gt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd OR do -&gt; dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eg AND ei -&gt; ej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y AND ae -&gt; ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jx AND jz -&gt; ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf RSHIFT 2 -&gt; lg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z AND aa -&gt; ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy AND ej -&gt; el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bj OR bi -&gt; bk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk RSHIFT 3 -&gt; km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT cn -&gt; co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gn AND gp -&gt; gq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq AND cs -&gt; ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eo LSHIFT 15 -&gt; es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg OR lm -&gt; ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy OR ej -&gt; ek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT di -&gt; dj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND fi -&gt; fj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kf LSHIFT 15 -&gt; kj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT jy -&gt; jz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ft -&gt; fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs AND fu -&gt; fv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT hr -&gt; hs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ck OR cl -&gt; cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp RSHIFT 5 -&gt; js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iv OR jb -&gt; jc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is OR it -&gt; iu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ld OR le -&gt; lf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT fc -&gt; fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT dm -&gt; dn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn OR by -&gt; bz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aj AND al -&gt; am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd LSHIFT 15 -&gt; ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp AND ka -&gt; kc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci OR ct -&gt; cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gv AND gx -&gt; gy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de AND dk -&gt; dm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x RSHIFT 5 -&gt; aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et RSHIFT 2 -&gt; eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x RSHIFT 1 -&gt; aq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ia OR ig -&gt; ih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bk LSHIFT 1 -&gt; ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y OR ae -&gt; af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ca -&gt; cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e AND f -&gt; h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ia AND ig -&gt; ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ck AND cl -&gt; cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT jh -&gt; ji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z OR aa -&gt; ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND en -&gt; eo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ib AND ic -&gt; ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT eh -&gt; ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iy AND ja -&gt; jb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT bb -&gt; bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ha OR gz -&gt; hb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND cx -&gt; cy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ax -&gt; ay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ev OR ew -&gt; ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn RSHIFT 2 -&gt; bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er OR es -&gt; et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu OR fa -&gt; fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp OR ka -&gt; kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea AND eb -&gt; ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k AND m -&gt; n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et RSHIFT 3 -&gt; ev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et RSHIFT 5 -&gt; ew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hz RSHIFT 1 -&gt; is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ki OR kj -&gt; kk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT h -&gt; i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lv LSHIFT 15 -&gt; lz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as RSHIFT 1 -&gt; bl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hu LSHIFT 15 -&gt; hy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iw AND ix -&gt; iz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf RSHIFT 1 -&gt; ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp OR fv -&gt; fw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND am -&gt; an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ap LSHIFT 1 -&gt; bj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u LSHIFT 1 -&gt; ao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b RSHIFT 5 -&gt; f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jq AND jw -&gt; jy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iu RSHIFT 3 -&gt; iw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ih AND ij -&gt; ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT iz -&gt; ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de OR dk -&gt; dl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iu OR jf -&gt; jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as AND bd -&gt; bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b RSHIFT 3 -&gt; e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jq OR jw -&gt; jx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iv AND jb -&gt; jd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cg OR ch -&gt; ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iu AND jf -&gt; jh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lx -&gt; a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND cc -&gt; cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ly OR lz -&gt; ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT el -&gt; em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND bh -&gt; bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb AND fd -&gt; fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf OR lq -&gt; lr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn RSHIFT 3 -&gt; bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn AND by -&gt; ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af AND ah -&gt; ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cf LSHIFT 1 -&gt; cz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw OR dx -&gt; dy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gj AND gu -&gt; gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jg AND ji -&gt; jj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jr OR js -&gt; jt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bl OR bm -&gt; bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gj RSHIFT 2 -&gt; gk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cj OR cp -&gt; cq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gj OR gu -&gt; gv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b OR n -&gt; o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o AND q -&gt; r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi LSHIFT 15 -&gt; bm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy RSHIFT 1 -&gt; er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cu AND cw -&gt; cx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iw OR ix -&gt; iy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hc OR hd -&gt; he</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db OR dc -&gt; dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk RSHIFT 2 -&gt; kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq LSHIFT 1 -&gt; fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dz OR ef -&gt; eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ed -&gt; ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw OR lv -&gt; lx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw AND fy -&gt; fz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dz AND ef -&gt; eh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp RSHIFT 3 -&gt; jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg AND lm -&gt; lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci RSHIFT 2 -&gt; cj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be AND bg -&gt; bh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lc LSHIFT 1 -&gt; lw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hm AND ho -&gt; hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jr AND js -&gt; ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND io -&gt; ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm AND co -&gt; cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ib OR ic -&gt; id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT bf -&gt; bg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo RSHIFT 5 -&gt; fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip LSHIFT 15 -&gt; it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jt AND jv -&gt; jw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jc AND je -&gt; jf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du OR dt -&gt; dv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT fx -&gt; fy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aw AND ay -&gt; az</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ge LSHIFT 15 -&gt; gi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ak -&gt; al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm OR fn -&gt; fo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff AND fh -&gt; fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci RSHIFT 5 -&gt; cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cz OR cy -&gt; da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ey -&gt; ez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ju -&gt; jv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ls -&gt; lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk AND kv -&gt; kx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ii -&gt; ij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kl AND kr -&gt; kt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk LSHIFT 15 -&gt; jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e OR f -&gt; g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT bs -&gt; bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi AND hk -&gt; hl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hz OR ik -&gt; il</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ek AND em -&gt; en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao OR an -&gt; ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dv LSHIFT 1 -&gt; ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an LSHIFT 15 -&gt; ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo RSHIFT 1 -&gt; gh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT im -&gt; in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk RSHIFT 1 -&gt; ld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hw LSHIFT 1 -&gt; iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec AND ee -&gt; ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hb LSHIFT 1 -&gt; hv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kb AND kd -&gt; ke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x AND ai -&gt; ak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd AND do -&gt; dq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq OR ar -&gt; as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq OR ip -&gt; ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dl AND dn -&gt; do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iu RSHIFT 5 -&gt; ix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as OR bd -&gt; be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT go -&gt; gp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fk OR fj -&gt; fl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jm LSHIFT 1 -&gt; kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT cv -&gt; cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp AND dr -&gt; ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt LSHIFT 15 -&gt; dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et RSHIFT 1 -&gt; fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy RSHIFT 3 -&gt; ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp AND fv -&gt; fx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT p -&gt; q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd RSHIFT 2 -&gt; de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu AND fa -&gt; fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba AND bc -&gt; bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dh AND dj -&gt; dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr AND lt -&gt; lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he RSHIFT 1 -&gt; hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex AND ez -&gt; fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df OR dg -&gt; dh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fj LSHIFT 15 -&gt; fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT kx -&gt; ky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gk OR gq -&gt; gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy RSHIFT 2 -&gt; dz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gh OR gi -&gt; gj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lj AND ll -&gt; lm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x OR ai -&gt; aj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bz AND cb -&gt; cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND lu -&gt; lv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as RSHIFT 3 -&gt; au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce OR cd -&gt; cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il AND in -&gt; io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd RSHIFT 1 -&gt; dw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT lo -&gt; lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c LSHIFT 1 -&gt; t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd RSHIFT 3 -&gt; df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd RSHIFT 5 -&gt; dg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh AND li -&gt; lk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf RSHIFT 5 -&gt; li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy RSHIFT 5 -&gt; eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT kt -&gt; ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at OR az -&gt; ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x RSHIFT 3 -&gt; z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT lk -&gt; ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lb OR la -&gt; lc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND r -&gt; s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh OR li -&gt; lj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln AND lp -&gt; lq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk RSHIFT 5 -&gt; kn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea OR eb -&gt; ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci AND ct -&gt; cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b RSHIFT 2 -&gt; d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp RSHIFT 1 -&gt; ki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT cr -&gt; cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT jd -&gt; je</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp RSHIFT 2 -&gt; jq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jn OR jo -&gt; jp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf RSHIFT 3 -&gt; lh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND ds -&gt; dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lf AND lq -&gt; ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la LSHIFT 15 -&gt; le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT fg -&gt; fh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at AND az -&gt; bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au AND av -&gt; ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kw AND ky -&gt; kz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v OR w -&gt; x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk OR kv -&gt; kw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ks AND ku -&gt; kv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kh LSHIFT 1 -&gt; lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND kz -&gt; la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT kc -&gt; kd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x RSHIFT 2 -&gt; y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et OR fe -&gt; ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et AND fe -&gt; fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ac -&gt; ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl OR jk -&gt; jm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND jj -&gt; jk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn RSHIFT 1 -&gt; cg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT kp -&gt; kq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci RSHIFT 3 -&gt; ck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ev AND ew -&gt; ey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND ke -&gt; kf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cj AND cp -&gt; cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir LSHIFT 1 -&gt; jl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT gw -&gt; gx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as RSHIFT 2 -&gt; at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iu RSHIFT 1 -&gt; jn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cy LSHIFT 15 -&gt; dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg OR hh -&gt; hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci RSHIFT 1 -&gt; db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au OR av -&gt; aw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km AND kn -&gt; kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gj RSHIFT 1 -&gt; hc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iu RSHIFT 2 -&gt; iv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab AND ad -&gt; ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da LSHIFT 1 -&gt; du</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT bw -&gt; bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km OR kn -&gt; ko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ko AND kq -&gt; kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bv AND bx -&gt; by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kl OR kr -&gt; ks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND ht -&gt; hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df AND dg -&gt; di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ag -&gt; ah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d OR j -&gt; k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d AND j -&gt; l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b AND n -&gt; p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gf OR ge -&gt; gg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gg LSHIFT 1 -&gt; ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn RSHIFT 5 -&gt; bq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bo OR bu -&gt; bv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND gy -&gt; gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s LSHIFT 15 -&gt; w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ie -&gt; if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as RSHIFT 5 -&gt; av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bo AND bu -&gt; bw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hz AND ik -&gt; im</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bp AND bq -&gt; bs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b RSHIFT 1 -&gt; v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT l -&gt; m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bp OR bq -&gt; br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g AND i -&gt; j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br AND bt -&gt; bu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t OR s -&gt; u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hz RSHIFT 5 -&gt; ic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gk AND gq -&gt; gs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fl LSHIFT 1 -&gt; gf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he RSHIFT 3 -&gt; hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz LSHIFT 15 -&gt; hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hf OR hl -&gt; hm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AND gd -&gt; ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo OR fz -&gt; ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id AND if -&gt; ig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo AND fz -&gt; gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gr AND gt -&gt; gu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he OR hp -&gt; hq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fq AND fr -&gt; ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ga AND gc -&gt; gd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo RSHIFT 2 -&gt; fp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gl OR gm -&gt; gn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg AND hh -&gt; hj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT hn -&gt; ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gl AND gm -&gt; go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he RSHIFT 5 -&gt; hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT gb -&gt; gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hq AND hs -&gt; ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hz RSHIFT 3 -&gt; ib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hz RSHIFT 2 -&gt; ia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fq OR fr -&gt; fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hx OR hy -&gt; hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he AND hp -&gt; hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gj RSHIFT 5 -&gt; gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hf AND hl -&gt; hn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hv OR hu -&gt; hw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT hj -&gt; hk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gj RSHIFT 3 -&gt; gl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo RSHIFT 3 -&gt; fq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he RSHIFT 2 -&gt; hf</t>
   </si>
 </sst>
 </file>
@@ -17044,7 +18062,7 @@
   </sheetPr>
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -18563,4 +19581,1726 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A339"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/aoc2015/inputs/inputs.xlsx
+++ b/aoc2015/inputs/inputs.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="day2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="day5" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="day6" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="day7" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="day8" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="test" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="2626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="2929">
   <si>
     <t xml:space="preserve">3x11x24</t>
   </si>
@@ -7901,20 +7903,996 @@
   </si>
   <si>
     <t xml:space="preserve">he RSHIFT 2 -&gt; hf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"azlgxdbljwygyttzkfwuxv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"v\xfb\"lgs\"kvjfywmut\x9cr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"merxdhj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dwz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"d\\gkbqo\\fwukyxab\"u"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"k\xd4cfixejvkicryipucwurq\x7eq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nvtidemacj\"hppfopvpr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kbngyfvvsdismznhar\\p\"\"gpryt\"jaeh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"khre\"o\x0elqfrbktzn"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nugkdmqwdq\x50amallrskmrxoyo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jcrkptrsasjp\\\"cwigzynjgspxxv\\vyb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ramf\"skhcmenhbpujbqwkltmplxygfcy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"aqjqgbfqaxga\\fkdcahlfi\"pvods"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pcrtfb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\x83qg\"nwgugfmfpzlrvty\"ryoxm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fvhvvokdnl\\eap"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kugdkrat"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"seuxwc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vhioftcosshaqtnz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"gzkxqrdq\\uko\"mrtst"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"znjcomvy\x16hhsenmroswr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"clowmtra"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\xc4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jpavsevmziklydtqqm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"egxjqytcttr\\ecfedmmovkyn\"m"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mjulrvqgmsvmwf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"o\\prxtlfbatxerhev\xf9hcl\x44rzmvklviv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lregjexqaqgwloydxdsc\\o\"dnjfmjcu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lnxluajtk\x8desue\\k\x7abhwokfhh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wrssfvzzn\"llrysjgiu\"npjtdli"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\x67lwkks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bifw\"ybvmwiyi\"vhol\"vol\xd4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"aywdqhvtvcpvbewtwuyxrix"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"gc\xd3\"caukdgfdywj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"uczy\\fk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bnlxkjvl\x7docehufkj\\\"qoyhag"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bidsptalmoicyorbv\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jorscv\"mufcvvfmcv\"ga"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sofpwfal\\a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kcuqtbboaly\"uj\"k"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"n\\c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"x\"\xcaj\\xwwvpdldz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"eyukphh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wcyjq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vjx\"\"hjroj\"l\x4cjwbr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xcodsxzfqw\\rowqtuwvjnxupjnrh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fpvzldgbdtca\"hqwa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ymjq\x8ahohvafubra\"hgqoknkuyph"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kx\\mkaaklvcup"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"belddrzegcsxsyfhzyz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fuyswi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\hubzebo\"ha\\qyr\"dv\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mxvlz\"fwuvx\"cyk\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ftbh\"ro\\tmcpnpvh\"xx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ygi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rw\"\"wwn\\fgbjumq\"vgvoh\xd0\"mm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"pat\"\x63kpfc\"\x2ckhfvxk\"uwqzlx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"o"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"d\"hqtsfp\xceaswe\"\xc0lw"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"zajpvfawqntvoveal\"\"trcdarjua"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xzapq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rkmhm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"byuq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rwwmt\xe8jg\xc2\"omt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nfljgdmgefvlh\"x"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rpjxcexisualz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"doxcycmgaiptvd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rq\\\"mohnjdf\\xv\\hrnosdtmvxot"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"oqvbcenib\"uhy\\npjxg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pkvgnm\\ruayuvpbpd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kknmzpxqfbcdgng"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"piduhbmaympxdexz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vapczawekhoa\\or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tlwn\"avc\"bycg\"\"xuxea"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\xcdvryveteqzxrgopmdmihkcgsuozips"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kpzziqt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sdy\\s\"cjq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yujs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qte\"q"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qyvpnkhjcqjv\"cclvv\"pclgtg\xeak\"tno"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xwx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vibuvv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qq\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wwjduomtbkbdtorhpyalxswisq\"r"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"afuw\\mfjzctcivwesutxbk\"lk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"e\xcef\\hkiu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ftdrgzvygcw\"jwsrcmgxj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"zrddqfkx\x21dr\"ju\"elybk\"powj\"\"kpryz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dttdkfvbodkma\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lzygktugpqw"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qu\x83tes\\u\"tnid\"ryuz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\o\"pe\\vqwlsizjklwrjofg\xe2oau\\rd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mikevjzhnwgx\"fozrj\"h\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ligxmxznzvtachvvbahnff"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"d\\kq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tnbkxpzmcakqhaa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"g\\yeakebeyv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"cqkcnd\"sxjxfnawy\x31zax\x6ceha"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"m\x0dtqotffzdnetujtsgjqgwddc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"masnugb\"etgmxul\x3bqd\\tmtddnvcy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"floediikodfgre\x23wyoxlswxflwecdjpt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"zu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"r"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"ashzdbd\"pdvba\xeeumkr\\amnj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ckslmuwbtfouwpfwtuiqmeozgspwnhx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"t\\qjsjek\xf9gjcxsyco\"r"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hoed\x1b\\tcmaqch\"epdy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mgjiojwzc\\ypqcn\xb1njmp\"aeeblxt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\xdf\"h\x5enfracj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\x6fpbpocrb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jbmhrswyyq\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wtyqtenfwatji\"ls\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"voy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"awj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rtbj\"j"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hynl"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"orqqeuaat\\xu\\havsgr\xc5qdk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"g\"npyzjfq\"rjefwsk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rk\\kkcirjbixr\\zelndx\"bsnqvqj\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tecoz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dn\"uswngbdk\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qb\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wpyis\\ebq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ppwue\\airoxzjjdqbvyurhaabetv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fxlvt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ql\"oqsmsvpxcg\"k"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vqlhuec\\adw"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qzmi\xffberakqqkk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tisjqff\"wf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yhnpudoaybwucvppj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xhfuf\\ehsrhsnfxcwtibd\"ubfpz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ihgjquzhf\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ff\x66dsupesrnusrtqnywoqcn\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"z\x77zpubbjmd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"vhzlbwq\"xeimjt\\xe\x85umho\"m\"\"bmy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mmuvkioocmzjjysi\"mkfbec\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rpgghowbduw\x2fayslubajinoik\xd0hcfy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xrkyjqul\xdexlojgdphczp\"jfk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mg\x07cnr\x8b\x67xdgszmgiktpjhawho"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kdgufhaoab"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rlhela\"nldr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wzye\x87u"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yif\x75bjhnitgoarmfgqwpmopu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pvlbyez\"wyy\x3dpgr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ezdm\"ovkruthkvdwtqwr\"ibdoawzgu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qubp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"b\\kcpegcn\\zgdemgorjnk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"gjsva\\kzaor\"\"gtpd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"kt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rlymwlcodix"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qqtmswowxca\"jvv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jni\xebwhozb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"zhino\"kzjtmgxpi\"zzexijg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tyrbat\\mejgzplufxixkyg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lhmopxiao\x09\"p\xebl"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xefioorxvate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nmcgd\x46xfujt\"w"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\xe3wnwpat\"gtimrb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wpq\"xkjuw\xebbohgcagppb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fmvpwaca"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mlsw"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fdan\\\x9e"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"f\"fmdlzc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nyuj\\jnnfzdnrqmhvjrahlvzl"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"zn\"f\xcfsshcdaukkimfwk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"uayugezzo\\\"e\"blnrgjaupqhik"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"efd\"apkndelkuvfvwyyatyttkehc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ufxq\\\"m\"bwkh\x93kapbqrvxxzbzp\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fgypsbgjak\x79qblbeidavqtddfacq\\i\"h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kcfgpiysdxlgejjvgndb\\dovfpqodw"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"onpqnssmighipuqgwx\"nrokzgvg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vhjrrhfrba\"jebdanzsrdusut\\wbs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"o\xdakymbaxakys"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"uwxhhzz\\mtmhghjn\\\\tnhzbejj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yd\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bpgztp\\lzwpdqju\"it\x35qjhihjv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\my\\b\"klnnto\\\xb3mbtsh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ezyvknv\"l\x2bdhhfjcvwzhjgmhwbqd\"\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ftkz\"amoncbsohtaumhl\"wsodemopodq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ifv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dmzfxvzq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sped\"bvmf\"mmevl\"zydannpfny"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fjxcjwlv\"pnqyrzatsjwsqfidb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"muc\xfdqouwwnmuixru\\zlhjintplvtee"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mraqgvmj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"njopq\"ftcsryo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"enoh\"n"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"t\"ntjhjc\"nzqh\xf7dcohhlsja\x7dtr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"flbqcmcoun"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dxkiysrn\\dyuqoaig"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nehkzi\"h\"syktzfufotng\xdafqo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dzkjg\\hqjk\\\"zfegssjhn"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sadlsjv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vmfnrdb\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ac\\bdp\"n"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qt\x89h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lsndeugwvijwde\\vjapbm\\k\\nljuva"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"twpmltdzyynqt\\z\\tnund\x64hm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hpcyata\"ocylbkzdnhujh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hskzq\"knntuhscex\"q\\y\\vqj\x3an"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"eekwyufvji\\mqgeroekxeyrmymq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hl\"durthetvri\xebw\\jxu\"rcmiuy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"fxdnmvnftxwesmvvq\"sjnf\xaabpg\"iary"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"\"nksqso"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ruq\xbezugge\"d\"hwvoxmy\"iawikddxn\"x"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rxxnlfay"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"stcu\"mv\xabcqts\\fasff"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yrnvwfkfuzuoysfdzl\x02bk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qbdsmlwdbfknivtwijbwtatqfe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"erqh\\csjph"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ikfv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\xd2cuhowmtsxepzsivsvnvsb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"d"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\g"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"porvg\x62qghorthnc\"\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tiks\\kr\"\x0fuejvuxzswnwdjscrk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xmgfel\"atma\\zaxmlgfjx\"ajmqf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"oz\\rnxwljc\\\"umhymtwh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wlsxxhm\x7fqx\\gjoyrvccfiner\\qloluqv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"k\\ieq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xidjj\"ksnlgnwxlddf\\s\\kuuleb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wjpnzgprzv\\maub\x0cj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"y"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"yecqiei\"ire\\jdhlnnlde\xc5u"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"drvdiycqib"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"egnrbefezcrhgldrtb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plqodxv\\zm\"uodwjdocri\x55ucaezutm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"f\"wexcw\x02ekewx\"alyzn"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pqajwuk\\\\oatkfqdyspnrupo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rkczj\"fzntabpnygrhamk\\km\x68xfkmr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wejam\xbac\x37kns"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qqmlwjk\"gh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fdcjsxlgx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\cxvxy\"kb\"\"unubvrsq\\y\\awfhbmarj\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"geunceaqr"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tpkg\"svvngk\\sizlsyaqwf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"pa\\x\x18od\\emgje\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ffiizogjjptubzqfuh\"cctieqcdh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yikhiyyrpgglpos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"h\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jotqojodcv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ervsz\x87ade\"fevq\\tcqowt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\y\"fgrxtppkcseeg\\onxjarx\\hyhfn\x5fi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kxndlabn\\wwumctuzdcfiitrbnn"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"eoosynwhwm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"c\x04"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ny\xf6vuwlec"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ubgxxcvnltzaucrzg\\xcez"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pnocjvo\\yt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fcabrtqog\"a\"zj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"o\\bha\\mzxmrfltnflv\xea"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tbfvzwhexsdxjmxejwqqngzixcx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wdptrakok\"rgymturdmwfiwu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"reffmj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lqm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\oc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"p\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ygkdnhcuehlx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vsqmv\"bqay\"olimtkewedzm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"isos\x6azbnkojhxoopzetbj\xe1yd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yo\\pgayjcyhshztnbdv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fg\"h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vcmcojolfcf\\\\oxveua"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"w\"vyszhbrr\"jpeddpnrjlca\x69bdbopd\\z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jikeqv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"dkjdfrtj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"is"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hgzx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"z\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"woubquq\\ag\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"xvclriqa\xe6ltt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tfxinifmd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mvywzf\"jz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"vlle"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"c\"rf\"wynhye\x25vccvb\""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"zvuxm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\xf2\"jdstiwqer\"h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kyogyogcknbzv\x9f\\\\e"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kspodj\"edpeqgypc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"oh\\x\\h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"julb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bmcfkidxyilgoy\\xmu\"ig\\qg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"veqww\"ea"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fkdbemtgtkpqisrwlxutllxc\"mbelhs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"e"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ecn\x50ooprbstnq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\"\xe8\"ec\xeah\"qo\\g\"iuqxy\"e\"y\xe7xk\xc6d"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lwj\"aftrcqj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"jduij\x97zk\"rftjrixzgscxxllpqx\"bwwb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"fqcditz"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"f\x19azclj\"rsvaokgvty\"aeq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"erse\x9etmzhlmhy\x67yftoti"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lsdw\xb3dmiy\\od"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"x\x6fxbljsjdgd\xaau"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"hjg\\w\"\x78uoqbsdikbjxpip\"w\"jnhzec"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"gk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\\zrs\\syur"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">aaa\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">aaa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"\x27"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7935,6 +8913,12 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7979,13 +8963,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -8008,7 +9004,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13035,7 +14031,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18047,7 +19043,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -18063,7 +19059,7 @@
   <dimension ref="A1:A300"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19575,7 +20571,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -19590,13 +20586,14 @@
   </sheetPr>
   <dimension ref="A1:A339"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21297,7 +22294,1583 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A300"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A289" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="3" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="3" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="3" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="3" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="3" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="3" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="3" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="3" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="3" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="3" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="3" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="3" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="3" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="3" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="3" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="3" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="3" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="3" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="3" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="3" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="3" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="3" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="3" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="3" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="3" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="3" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="3" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="3" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="3" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="3" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="3" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="3" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="3" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="3" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="3" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="3" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="3" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="3" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="3" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="3" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="3" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="3" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="3" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="3" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="3" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
